--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col2a1-Itga2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col2a1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>Itga2</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.425653352363177</v>
+        <v>0.07108</v>
       </c>
       <c r="H2">
-        <v>0.425653352363177</v>
+        <v>0.21324</v>
       </c>
       <c r="I2">
-        <v>0.891606891340473</v>
+        <v>0.09618084380152486</v>
       </c>
       <c r="J2">
-        <v>0.891606891340473</v>
+        <v>0.0966656602993535</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.65732958697911</v>
+        <v>3.042935333333334</v>
       </c>
       <c r="N2">
-        <v>1.65732958697911</v>
+        <v>9.128806000000001</v>
       </c>
       <c r="O2">
-        <v>0.3967744199406166</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="P2">
-        <v>0.3967744199406166</v>
+        <v>0.5831288282815508</v>
       </c>
       <c r="Q2">
-        <v>0.7054478946683377</v>
+        <v>0.2162918434933334</v>
       </c>
       <c r="R2">
-        <v>0.7054478946683377</v>
+        <v>1.94662659144</v>
       </c>
       <c r="S2">
-        <v>0.3537668071266726</v>
+        <v>0.05152046449593824</v>
       </c>
       <c r="T2">
-        <v>0.3537668071266726</v>
+        <v>0.05636853322542443</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.425653352363177</v>
+        <v>0.07108</v>
       </c>
       <c r="H3">
-        <v>0.425653352363177</v>
+        <v>0.21324</v>
       </c>
       <c r="I3">
-        <v>0.891606891340473</v>
+        <v>0.09618084380152486</v>
       </c>
       <c r="J3">
-        <v>0.891606891340473</v>
+        <v>0.0966656602993535</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.01028305160397</v>
+        <v>1.067915666666667</v>
       </c>
       <c r="N3">
-        <v>1.01028305160397</v>
+        <v>3.203747</v>
       </c>
       <c r="O3">
-        <v>0.2418676857791798</v>
+        <v>0.1879902916822836</v>
       </c>
       <c r="P3">
-        <v>0.2418676857791798</v>
+        <v>0.2046485853922773</v>
       </c>
       <c r="Q3">
-        <v>0.4300303677509303</v>
+        <v>0.07590744558666668</v>
       </c>
       <c r="R3">
-        <v>0.4300303677509303</v>
+        <v>0.68316701028</v>
       </c>
       <c r="S3">
-        <v>0.2156508954332889</v>
+        <v>0.01808106488049682</v>
       </c>
       <c r="T3">
-        <v>0.2156508954332889</v>
+        <v>0.01978249063627311</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.425653352363177</v>
+        <v>0.07108</v>
       </c>
       <c r="H4">
-        <v>0.425653352363177</v>
+        <v>0.21324</v>
       </c>
       <c r="I4">
-        <v>0.891606891340473</v>
+        <v>0.09618084380152486</v>
       </c>
       <c r="J4">
-        <v>0.891606891340473</v>
+        <v>0.0966656602993535</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.155290287716967</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N4">
-        <v>0.155290287716967</v>
+        <v>0.06775</v>
       </c>
       <c r="O4">
-        <v>0.03717740533650878</v>
+        <v>0.003975451950942043</v>
       </c>
       <c r="P4">
-        <v>0.03717740533650878</v>
+        <v>0.004327726771285868</v>
       </c>
       <c r="Q4">
-        <v>0.06609983155616929</v>
+        <v>0.001605223333333333</v>
       </c>
       <c r="R4">
-        <v>0.06609983155616929</v>
+        <v>0.01444701</v>
       </c>
       <c r="S4">
-        <v>0.0331476308001893</v>
+        <v>0.0003823623231340239</v>
       </c>
       <c r="T4">
-        <v>0.0331476308001893</v>
+        <v>0.0004183425659415377</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -720,111 +723,111 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.425653352363177</v>
+        <v>0.07108</v>
       </c>
       <c r="H5">
-        <v>0.425653352363177</v>
+        <v>0.21324</v>
       </c>
       <c r="I5">
-        <v>0.891606891340473</v>
+        <v>0.09618084380152486</v>
       </c>
       <c r="J5">
-        <v>0.891606891340473</v>
+        <v>0.0966656602993535</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.35410421853342</v>
+        <v>0.160044</v>
       </c>
       <c r="N5">
-        <v>1.35410421853342</v>
+        <v>0.480132</v>
       </c>
       <c r="O5">
-        <v>0.3241804889436948</v>
+        <v>0.02817330916767092</v>
       </c>
       <c r="P5">
-        <v>0.3241804889436948</v>
+        <v>0.03066981712400039</v>
       </c>
       <c r="Q5">
-        <v>0.5763790000678702</v>
+        <v>0.01137592752</v>
       </c>
       <c r="R5">
-        <v>0.5763790000678702</v>
+        <v>0.10238334768</v>
       </c>
       <c r="S5">
-        <v>0.2890415579803223</v>
+        <v>0.002709732648427825</v>
       </c>
       <c r="T5">
-        <v>0.2890415579803223</v>
+        <v>0.002964718123551916</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.04335008402994</v>
+        <v>0.07108</v>
       </c>
       <c r="H6">
-        <v>0.04335008402994</v>
+        <v>0.21324</v>
       </c>
       <c r="I6">
-        <v>0.09080448549669824</v>
+        <v>0.09618084380152486</v>
       </c>
       <c r="J6">
-        <v>0.09080448549669824</v>
+        <v>0.0966656602993535</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.65732958697911</v>
+        <v>1.3872175</v>
       </c>
       <c r="N6">
-        <v>1.65732958697911</v>
+        <v>2.774435</v>
       </c>
       <c r="O6">
-        <v>0.3967744199406166</v>
+        <v>0.2441985173471266</v>
       </c>
       <c r="P6">
-        <v>0.3967744199406166</v>
+        <v>0.1772250424308857</v>
       </c>
       <c r="Q6">
-        <v>0.07184537686085017</v>
+        <v>0.0986034199</v>
       </c>
       <c r="R6">
-        <v>0.07184537686085017</v>
+        <v>0.5916205194</v>
       </c>
       <c r="S6">
-        <v>0.03602889706095858</v>
+        <v>0.02348721945352794</v>
       </c>
       <c r="T6">
-        <v>0.03602889706095858</v>
+        <v>0.01713157574816251</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.04335008402994</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H7">
-        <v>0.04335008402994</v>
+        <v>1.792463</v>
       </c>
       <c r="I7">
-        <v>0.09080448549669824</v>
+        <v>0.8084815410946006</v>
       </c>
       <c r="J7">
-        <v>0.09080448549669824</v>
+        <v>0.8125568348206718</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.01028305160397</v>
+        <v>3.042935333333334</v>
       </c>
       <c r="N7">
-        <v>1.01028305160397</v>
+        <v>9.128806000000001</v>
       </c>
       <c r="O7">
-        <v>0.2418676857791798</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="P7">
-        <v>0.2418676857791798</v>
+        <v>0.5831288282815508</v>
       </c>
       <c r="Q7">
-        <v>0.04379585518105631</v>
+        <v>1.818116332130889</v>
       </c>
       <c r="R7">
-        <v>0.04379585518105631</v>
+        <v>16.363046989178</v>
       </c>
       <c r="S7">
-        <v>0.0219626707654555</v>
+        <v>0.4330731867932046</v>
       </c>
       <c r="T7">
-        <v>0.0219626707654555</v>
+        <v>0.4738253150011439</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.04335008402994</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H8">
-        <v>0.04335008402994</v>
+        <v>1.792463</v>
       </c>
       <c r="I8">
-        <v>0.09080448549669824</v>
+        <v>0.8084815410946006</v>
       </c>
       <c r="J8">
-        <v>0.09080448549669824</v>
+        <v>0.8125568348206718</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.155290287716967</v>
+        <v>1.067915666666667</v>
       </c>
       <c r="N8">
-        <v>0.155290287716967</v>
+        <v>3.203747</v>
       </c>
       <c r="O8">
-        <v>0.03717740533650878</v>
+        <v>0.1879902916822836</v>
       </c>
       <c r="P8">
-        <v>0.03717740533650878</v>
+        <v>0.2046485853922773</v>
       </c>
       <c r="Q8">
-        <v>0.00673184702156408</v>
+        <v>0.6380664398734445</v>
       </c>
       <c r="R8">
-        <v>0.00673184702156408</v>
+        <v>5.742597958860999</v>
       </c>
       <c r="S8">
-        <v>0.003375875163683883</v>
+        <v>0.1519866807301161</v>
       </c>
       <c r="T8">
-        <v>0.003375875163683883</v>
+        <v>0.1662886067968768</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.04335008402994</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H9">
-        <v>0.04335008402994</v>
+        <v>1.792463</v>
       </c>
       <c r="I9">
-        <v>0.09080448549669824</v>
+        <v>0.8084815410946006</v>
       </c>
       <c r="J9">
-        <v>0.09080448549669824</v>
+        <v>0.8125568348206718</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.35410421853342</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N9">
-        <v>1.35410421853342</v>
+        <v>0.06775</v>
       </c>
       <c r="O9">
-        <v>0.3241804889436948</v>
+        <v>0.003975451950942043</v>
       </c>
       <c r="P9">
-        <v>0.3241804889436948</v>
+        <v>0.004327726771285868</v>
       </c>
       <c r="Q9">
-        <v>0.05870053165872</v>
+        <v>0.01349326313888889</v>
       </c>
       <c r="R9">
-        <v>0.05870053165872</v>
+        <v>0.12143936825</v>
       </c>
       <c r="S9">
-        <v>0.02943704250660028</v>
+        <v>0.003214079519845159</v>
       </c>
       <c r="T9">
-        <v>0.02943704250660028</v>
+        <v>0.00351652396724473</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.008396813085927299</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H10">
-        <v>0.008396813085927299</v>
+        <v>1.792463</v>
       </c>
       <c r="I10">
-        <v>0.01758862316282866</v>
+        <v>0.8084815410946006</v>
       </c>
       <c r="J10">
-        <v>0.01758862316282866</v>
+        <v>0.8125568348206718</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.65732958697911</v>
+        <v>0.160044</v>
       </c>
       <c r="N10">
-        <v>1.65732958697911</v>
+        <v>0.480132</v>
       </c>
       <c r="O10">
-        <v>0.3967744199406166</v>
+        <v>0.02817330916767092</v>
       </c>
       <c r="P10">
-        <v>0.3967744199406166</v>
+        <v>0.03066981712400039</v>
       </c>
       <c r="Q10">
-        <v>0.01391628676364068</v>
+        <v>0.09562431612399999</v>
       </c>
       <c r="R10">
-        <v>0.01391628676364068</v>
+        <v>0.860618845116</v>
       </c>
       <c r="S10">
-        <v>0.006978715752985436</v>
+        <v>0.02277760041361322</v>
       </c>
       <c r="T10">
-        <v>0.006978715752985436</v>
+        <v>0.02492096952680659</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.008396813085927299</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H11">
-        <v>0.008396813085927299</v>
+        <v>1.792463</v>
       </c>
       <c r="I11">
-        <v>0.01758862316282866</v>
+        <v>0.8084815410946006</v>
       </c>
       <c r="J11">
-        <v>0.01758862316282866</v>
+        <v>0.8125568348206718</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.01028305160397</v>
+        <v>1.3872175</v>
       </c>
       <c r="N11">
-        <v>1.01028305160397</v>
+        <v>2.774435</v>
       </c>
       <c r="O11">
-        <v>0.2418676857791798</v>
+        <v>0.2441985173471266</v>
       </c>
       <c r="P11">
-        <v>0.2418676857791798</v>
+        <v>0.1772250424308857</v>
       </c>
       <c r="Q11">
-        <v>0.008483157948198781</v>
+        <v>0.8288453472341666</v>
       </c>
       <c r="R11">
-        <v>0.008483157948198781</v>
+        <v>4.973072083405</v>
       </c>
       <c r="S11">
-        <v>0.004254119580435447</v>
+        <v>0.1974299936378215</v>
       </c>
       <c r="T11">
-        <v>0.004254119580435447</v>
+        <v>0.1440054195285997</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.008396813085927299</v>
+        <v>0.05933733333333333</v>
       </c>
       <c r="H12">
-        <v>0.008396813085927299</v>
+        <v>0.178012</v>
       </c>
       <c r="I12">
-        <v>0.01758862316282866</v>
+        <v>0.08029142921964473</v>
       </c>
       <c r="J12">
-        <v>0.01758862316282866</v>
+        <v>0.08069615232230591</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.155290287716967</v>
+        <v>3.042935333333334</v>
       </c>
       <c r="N12">
-        <v>0.155290287716967</v>
+        <v>9.128806000000001</v>
       </c>
       <c r="O12">
-        <v>0.03717740533650878</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="P12">
-        <v>0.03717740533650878</v>
+        <v>0.5831288282815508</v>
       </c>
       <c r="Q12">
-        <v>0.001303943520019244</v>
+        <v>0.1805596681857778</v>
       </c>
       <c r="R12">
-        <v>0.001303943520019244</v>
+        <v>1.625037013672</v>
       </c>
       <c r="S12">
-        <v>0.0006538993726355882</v>
+        <v>0.0430091020720829</v>
       </c>
       <c r="T12">
-        <v>0.0006538993726355882</v>
+        <v>0.04705625275053579</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.05933733333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.178012</v>
+      </c>
+      <c r="I13">
+        <v>0.08029142921964473</v>
+      </c>
+      <c r="J13">
+        <v>0.08069615232230591</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.067915666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.203747</v>
+      </c>
+      <c r="O13">
+        <v>0.1879902916822836</v>
+      </c>
+      <c r="P13">
+        <v>0.2046485853922773</v>
+      </c>
+      <c r="Q13">
+        <v>0.06336726788488889</v>
+      </c>
+      <c r="R13">
+        <v>0.570305410964</v>
+      </c>
+      <c r="S13">
+        <v>0.01509400919858844</v>
+      </c>
+      <c r="T13">
+        <v>0.01651435341935964</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.05933733333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.178012</v>
+      </c>
+      <c r="I14">
+        <v>0.08029142921964473</v>
+      </c>
+      <c r="J14">
+        <v>0.08069615232230591</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.02258333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.06775</v>
+      </c>
+      <c r="O14">
+        <v>0.003975451950942043</v>
+      </c>
+      <c r="P14">
+        <v>0.004327726771285868</v>
+      </c>
+      <c r="Q14">
+        <v>0.001340034777777778</v>
+      </c>
+      <c r="R14">
+        <v>0.012060313</v>
+      </c>
+      <c r="S14">
+        <v>0.0003191947189351616</v>
+      </c>
+      <c r="T14">
+        <v>0.0003492308987450056</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.05933733333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.178012</v>
+      </c>
+      <c r="I15">
+        <v>0.08029142921964473</v>
+      </c>
+      <c r="J15">
+        <v>0.08069615232230591</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.160044</v>
+      </c>
+      <c r="N15">
+        <v>0.480132</v>
+      </c>
+      <c r="O15">
+        <v>0.02817330916767092</v>
+      </c>
+      <c r="P15">
+        <v>0.03066981712400039</v>
+      </c>
+      <c r="Q15">
+        <v>0.009496584176</v>
+      </c>
+      <c r="R15">
+        <v>0.08546925758400001</v>
+      </c>
+      <c r="S15">
+        <v>0.002262075258919217</v>
+      </c>
+      <c r="T15">
+        <v>0.002474936234335601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.05933733333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.178012</v>
+      </c>
+      <c r="I16">
+        <v>0.08029142921964473</v>
+      </c>
+      <c r="J16">
+        <v>0.08069615232230591</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.3872175</v>
+      </c>
+      <c r="N16">
+        <v>2.774435</v>
+      </c>
+      <c r="O16">
+        <v>0.2441985173471266</v>
+      </c>
+      <c r="P16">
+        <v>0.1772250424308857</v>
+      </c>
+      <c r="Q16">
+        <v>0.08231378720333334</v>
+      </c>
+      <c r="R16">
+        <v>0.49388272322</v>
+      </c>
+      <c r="S16">
+        <v>0.019607047971119</v>
+      </c>
+      <c r="T16">
+        <v>0.01430137901932988</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.0111195</v>
+      </c>
+      <c r="H17">
+        <v>0.022239</v>
+      </c>
+      <c r="I17">
+        <v>0.01504618588422982</v>
+      </c>
+      <c r="J17">
+        <v>0.01008135255766893</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.042935333333334</v>
+      </c>
+      <c r="N17">
+        <v>9.128806000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.5356624298519768</v>
+      </c>
+      <c r="P17">
+        <v>0.5831288282815508</v>
+      </c>
+      <c r="Q17">
+        <v>0.033835919439</v>
+      </c>
+      <c r="R17">
+        <v>0.203015516634</v>
+      </c>
+      <c r="S17">
+        <v>0.008059676490751058</v>
+      </c>
+      <c r="T17">
+        <v>0.005878727304446696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.0111195</v>
+      </c>
+      <c r="H18">
+        <v>0.022239</v>
+      </c>
+      <c r="I18">
+        <v>0.01504618588422982</v>
+      </c>
+      <c r="J18">
+        <v>0.01008135255766893</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.067915666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.203747</v>
+      </c>
+      <c r="O18">
+        <v>0.1879902916822836</v>
+      </c>
+      <c r="P18">
+        <v>0.2046485853922773</v>
+      </c>
+      <c r="Q18">
+        <v>0.0118746882555</v>
+      </c>
+      <c r="R18">
+        <v>0.071248129533</v>
+      </c>
+      <c r="S18">
+        <v>0.002828536873082222</v>
+      </c>
+      <c r="T18">
+        <v>0.002063134539767762</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.0111195</v>
+      </c>
+      <c r="H19">
+        <v>0.022239</v>
+      </c>
+      <c r="I19">
+        <v>0.01504618588422982</v>
+      </c>
+      <c r="J19">
+        <v>0.01008135255766893</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.02258333333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.06775</v>
+      </c>
+      <c r="O19">
+        <v>0.003975451950942043</v>
+      </c>
+      <c r="P19">
+        <v>0.004327726771285868</v>
+      </c>
+      <c r="Q19">
+        <v>0.000251115375</v>
+      </c>
+      <c r="R19">
+        <v>0.00150669225</v>
+      </c>
+      <c r="S19">
+        <v>5.981538902769805E-05</v>
+      </c>
+      <c r="T19">
+        <v>4.362933935459508E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.008396813085927299</v>
-      </c>
-      <c r="H13">
-        <v>0.008396813085927299</v>
-      </c>
-      <c r="I13">
-        <v>0.01758862316282866</v>
-      </c>
-      <c r="J13">
-        <v>0.01758862316282866</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.35410421853342</v>
-      </c>
-      <c r="N13">
-        <v>1.35410421853342</v>
-      </c>
-      <c r="O13">
-        <v>0.3241804889436948</v>
-      </c>
-      <c r="P13">
-        <v>0.3241804889436948</v>
-      </c>
-      <c r="Q13">
-        <v>0.01137016002189078</v>
-      </c>
-      <c r="R13">
-        <v>0.01137016002189078</v>
-      </c>
-      <c r="S13">
-        <v>0.005701888456772192</v>
-      </c>
-      <c r="T13">
-        <v>0.005701888456772192</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.0111195</v>
+      </c>
+      <c r="H20">
+        <v>0.022239</v>
+      </c>
+      <c r="I20">
+        <v>0.01504618588422982</v>
+      </c>
+      <c r="J20">
+        <v>0.01008135255766893</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.160044</v>
+      </c>
+      <c r="N20">
+        <v>0.480132</v>
+      </c>
+      <c r="O20">
+        <v>0.02817330916767092</v>
+      </c>
+      <c r="P20">
+        <v>0.03066981712400039</v>
+      </c>
+      <c r="Q20">
+        <v>0.001779609258</v>
+      </c>
+      <c r="R20">
+        <v>0.010677655548</v>
+      </c>
+      <c r="S20">
+        <v>0.0004239008467106527</v>
+      </c>
+      <c r="T20">
+        <v>0.0003091932393062796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.0111195</v>
+      </c>
+      <c r="H21">
+        <v>0.022239</v>
+      </c>
+      <c r="I21">
+        <v>0.01504618588422982</v>
+      </c>
+      <c r="J21">
+        <v>0.01008135255766893</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.3872175</v>
+      </c>
+      <c r="N21">
+        <v>2.774435</v>
+      </c>
+      <c r="O21">
+        <v>0.2441985173471266</v>
+      </c>
+      <c r="P21">
+        <v>0.1772250424308857</v>
+      </c>
+      <c r="Q21">
+        <v>0.01542516499125</v>
+      </c>
+      <c r="R21">
+        <v>0.06170065996499999</v>
+      </c>
+      <c r="S21">
+        <v>0.003674256284658187</v>
+      </c>
+      <c r="T21">
+        <v>0.001786668134793594</v>
       </c>
     </row>
   </sheetData>
